--- a/docs/dpm_change_report_empty.xlsx
+++ b/docs/dpm_change_report_empty.xlsx
@@ -20,7 +20,7 @@
     <sheet name="11_Rep_Fw_Translation" r:id="rId14" sheetId="12"/>
     <sheet name="12_Table" r:id="rId15" sheetId="13"/>
     <sheet name="13_Table_Axis" r:id="rId16" sheetId="14"/>
-    <sheet name="14_Axis_Ordinates" r:id="rId17" sheetId="15"/>
+    <sheet name="14_Axis_Ordinate" r:id="rId17" sheetId="15"/>
     <sheet name="15_Axis_Ord_Translation" r:id="rId18" sheetId="16"/>
     <sheet name="16_Ord_Cat" r:id="rId19" sheetId="17"/>
   </sheets>
@@ -29,7 +29,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="true">'02_Dict_Translation'!$A$1:$L$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="true">'03_Domain'!$A$1:$I$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="true">'04_Member'!$A$1:$H$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="true">'05_Metric'!$A$1:$R$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="true">'05_Metric'!$A$1:$T$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="true">'06_Dimension'!$A$1:$I$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="true">'07_Hierarchy'!$A$1:$F$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="true">'08_Hier_Node'!$A$1:$L$1</definedName>
@@ -38,9 +38,9 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="true">'11_Rep_Fw_Translation'!$A$1:$L$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="true">'12_Table'!$A$1:$H$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="true">'13_Table_Axis'!$A$1:$I$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="true">'14_Axis_Ordinates'!$A$1:$V$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="true">'14_Axis_Ordinate'!$A$1:$V$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="true">'15_Axis_Ord_Translation'!$A$1:$L$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="true">'16_Ord_Cat'!$A$1:$N$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="true">'16_Ord_Cat'!$A$1:$L$1</definedName>
   </definedNames>
 </workbook>
 </file>
@@ -158,7 +158,7 @@
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>2020-09-09 18:29:37</t>
+          <t>2021-02-21 22:15:17</t>
         </is>
       </c>
     </row>
@@ -194,59 +194,55 @@
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>DPM Diff (7853f1a @ https://github.com/VK-FRTT/dpm-diff.git)</t>
+          <t>DPM Diff (70bb12d @ https://github.com/VK-FRTT/dpm-diff.git)</t>
         </is>
       </c>
     </row>
     <row r="7">
-</row>
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>Generation options</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr">
+        <is>
+          <t>IdentificationLabelLanguages: fi, sv
+TranslationLanguages: ALL</t>
+        </is>
+      </c>
+    </row>
     <row r="8">
 </row>
     <row r="9">
 </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
+</row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>Sheet</t>
         </is>
       </c>
-      <c r="B10" s="1" t="inlineStr">
+      <c r="B11" s="1" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="C10" s="1" t="inlineStr">
+      <c r="C11" s="1" t="inlineStr">
         <is>
           <t>Change count</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="inlineStr">
-        <is>
-          <t>Dictionary overview</t>
-        </is>
-      </c>
-      <c r="B11" s="2" t="inlineStr">
-        <is>
-          <t>Added and deleted Domains, Members, Metrics, Dimensions and Hierarchies</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>Dictionary translations</t>
+          <t>Dictionary overview</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>Label and description changes in Domains, Members, Metrics, Dimensions and Hierarchies</t>
+          <t>Added and deleted Domains, Members, Metrics, Dimensions and Hierarchies</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
@@ -258,12 +254,12 @@
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>Domains</t>
+          <t>Dictionary translations</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>Added and deleted Domains, changes in IsTypedDomain and DataType</t>
+          <t>Label and description changes in Domains, Members, Metrics, Dimensions and Hierarchies</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
@@ -275,12 +271,12 @@
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>Members</t>
+          <t>Domains</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>Added and deleted Members, changes in IsDefaultMember</t>
+          <t>Added and deleted Domains, changes in IsTypedDomain and DataType</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
@@ -292,12 +288,12 @@
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>Metrics</t>
+          <t>Members</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>Added and deleted Metrics, changes in DataType, FlowType, BalanceType, Domain reference and Hierarchy reference</t>
+          <t>Added and deleted Members, changes in IsDefaultMember</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
@@ -309,12 +305,12 @@
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>Dimensions</t>
+          <t>Metrics</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>Added and deleted Dimensions, changes in Domain reference and IsTypedDimension</t>
+          <t>Added and deleted Metrics, changes in DataType, FlowType, BalanceType, Domain reference and Hierarchy reference</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
@@ -326,12 +322,12 @@
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>Hierarchies</t>
+          <t>Dimensions</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>Added and deleted Hierarchies</t>
+          <t>Added and deleted Dimensions, changes in Domain reference and IsTypedDimension</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
@@ -343,12 +339,12 @@
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>HierarchyNodes</t>
+          <t>Hierarchies</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>Added and deleted HierarchyNodes, changes in ComparisonOperator, UnaryOperator and IsAbstract details</t>
+          <t>Added and deleted Hierarchies</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
@@ -360,12 +356,12 @@
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>HierarchyNodes structure</t>
+          <t>HierarchyNodes</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>Added and deleted HierarchyNodes, changes in Parent Member, Order and Level details</t>
+          <t>Added and deleted HierarchyNodes, changes in ComparisonOperator, UnaryOperator and IsAbstract details</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
@@ -377,12 +373,12 @@
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>ReportingFramework overview</t>
+          <t>HierarchyNodes structure</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>Added and deleted Reporting Frameworks, Taxonomies, Modules and Tables</t>
+          <t>Added and deleted HierarchyNodes, changes in Parent Member, Order and Level details</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
@@ -394,12 +390,12 @@
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>ReportingFramework translations</t>
+          <t>ReportingFramework overview</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>Label and description changes in Reporting Frameworks, Taxonomies, Modules and Tables</t>
+          <t>Added and deleted Reporting Frameworks, Taxonomies, Modules and Tables</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
@@ -411,12 +407,12 @@
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>Tables</t>
+          <t>ReportingFramework translations</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>Added and deleted Tables, changes in FilingIndicator</t>
+          <t>Label and description changes in Reporting Frameworks, Taxonomies, Modules and Tables</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
@@ -428,12 +424,12 @@
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>TableAxis</t>
+          <t>Tables</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>Added and deleted Table Axis, changes in Order</t>
+          <t>Added and deleted Tables, changes in FilingIndicator</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
@@ -445,12 +441,12 @@
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>AxisOrdinates</t>
+          <t>TableAxis</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>Added and deleted Axis Ordinates, changes in IsDisplayBeforeChildren, IsAbstractHeader, IsRowKey and TypeOfKey</t>
+          <t>Added and deleted Table Axis, changes in Order</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
@@ -462,12 +458,12 @@
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>AxisOrdinate translations</t>
+          <t>AxisOrdinates</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>Label and description changes in Axis Ordinates</t>
+          <t>Added and deleted Axis Ordinates, changes in IsDisplayBeforeChildren, IsAbstractHeader, IsRowKey and TypeOfKey</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
@@ -479,15 +475,32 @@
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
+          <t>AxisOrdinate translations</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="inlineStr">
+        <is>
+          <t>Label and description changes in Axis Ordinates</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="inlineStr">
+        <is>
           <t>OrdinateCategorisations</t>
         </is>
       </c>
-      <c r="B26" s="2" t="inlineStr">
+      <c r="B27" s="2" t="inlineStr">
         <is>
           <t>Added and deleted OrdinateCategorisations</t>
         </is>
       </c>
-      <c r="C26" s="2" t="inlineStr">
+      <c r="C27" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
@@ -495,22 +508,22 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink location="'01_Dict_Overview'!A1" ref="A11"/>
-    <hyperlink location="'02_Dict_Translation'!A1" ref="A12"/>
-    <hyperlink location="'03_Domain'!A1" ref="A13"/>
-    <hyperlink location="'04_Member'!A1" ref="A14"/>
-    <hyperlink location="'05_Metric'!A1" ref="A15"/>
-    <hyperlink location="'06_Dimension'!A1" ref="A16"/>
-    <hyperlink location="'07_Hierarchy'!A1" ref="A17"/>
-    <hyperlink location="'08_Hier_Node'!A1" ref="A18"/>
-    <hyperlink location="'09_Hier_Node_Structure'!A1" ref="A19"/>
-    <hyperlink location="'10_Rep_Fw_Overview'!A1" ref="A20"/>
-    <hyperlink location="'11_Rep_Fw_Translation'!A1" ref="A21"/>
-    <hyperlink location="'12_Table'!A1" ref="A22"/>
-    <hyperlink location="'13_Table_Axis'!A1" ref="A23"/>
-    <hyperlink location="'14_Axis_Ordinates'!A1" ref="A24"/>
-    <hyperlink location="'15_Axis_Ord_Translation'!A1" ref="A25"/>
-    <hyperlink location="'16_Ord_Cat'!A1" ref="A26"/>
+    <hyperlink location="'01_Dict_Overview'!A1" ref="A12"/>
+    <hyperlink location="'02_Dict_Translation'!A1" ref="A13"/>
+    <hyperlink location="'03_Domain'!A1" ref="A14"/>
+    <hyperlink location="'04_Member'!A1" ref="A15"/>
+    <hyperlink location="'05_Metric'!A1" ref="A16"/>
+    <hyperlink location="'06_Dimension'!A1" ref="A17"/>
+    <hyperlink location="'07_Hierarchy'!A1" ref="A18"/>
+    <hyperlink location="'08_Hier_Node'!A1" ref="A19"/>
+    <hyperlink location="'09_Hier_Node_Structure'!A1" ref="A20"/>
+    <hyperlink location="'10_Rep_Fw_Overview'!A1" ref="A21"/>
+    <hyperlink location="'11_Rep_Fw_Translation'!A1" ref="A22"/>
+    <hyperlink location="'12_Table'!A1" ref="A23"/>
+    <hyperlink location="'13_Table_Axis'!A1" ref="A24"/>
+    <hyperlink location="'14_Axis_Ordinate'!A1" ref="A25"/>
+    <hyperlink location="'15_Axis_Ord_Translation'!A1" ref="A26"/>
+    <hyperlink location="'16_Ord_Cat'!A1" ref="A27"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -533,11 +546,11 @@
     <col min="4" max="4" width="31.54296875" customWidth="true"/>
     <col min="5" max="5" width="11.46875" customWidth="true"/>
     <col min="6" max="6" width="26.828125" customWidth="true"/>
-    <col min="7" max="7" width="39.9296875" customWidth="true"/>
+    <col min="7" max="7" width="38.609375" customWidth="true"/>
     <col min="8" max="8" width="9.97265625" customWidth="true"/>
-    <col min="9" max="9" width="23.07421875" customWidth="true"/>
+    <col min="9" max="9" width="21.7578125" customWidth="true"/>
     <col min="10" max="10" width="8.90625" customWidth="true"/>
-    <col min="11" max="11" width="22.0078125" customWidth="true"/>
+    <col min="11" max="11" width="20.6875" customWidth="true"/>
     <col min="12" max="12" width="29.296875" customWidth="true"/>
   </cols>
   <sheetData>
@@ -574,7 +587,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>PARENT MEMBER CODE  (BASELINE )</t>
+          <t>PARENT MEMBER CODE (BASELINE)</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -584,7 +597,7 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ORDER  (BASELINE )</t>
+          <t>ORDER (BASELINE)</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
@@ -594,7 +607,7 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>LEVEL  (BASELINE )</t>
+          <t>LEVEL (BASELINE)</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
@@ -756,7 +769,7 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>TRANSLATION  (BASELINE )</t>
+          <t>TRANSLATION (BASELINE)</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
@@ -788,7 +801,7 @@
     <col min="4" max="4" width="19.375" customWidth="true"/>
     <col min="5" max="5" width="11.46875" customWidth="true"/>
     <col min="6" max="6" width="21.859375" customWidth="true"/>
-    <col min="7" max="7" width="34.9609375" customWidth="true"/>
+    <col min="7" max="7" width="33.640625" customWidth="true"/>
     <col min="8" max="8" width="29.296875" customWidth="true"/>
   </cols>
   <sheetData>
@@ -798,7 +811,7 @@
           <t>TAXONOMY CODE</t>
         </is>
       </c>
-      <c r="B1" s="4" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>TABLE CODE</t>
         </is>
@@ -825,7 +838,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>FILING INDICATOR  (BASELINE )</t>
+          <t>FILING INDICATOR (BASELINE)</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -858,7 +871,7 @@
     <col min="5" max="5" width="17.51171875" customWidth="true"/>
     <col min="6" max="6" width="11.46875" customWidth="true"/>
     <col min="7" max="7" width="9.97265625" customWidth="true"/>
-    <col min="8" max="8" width="23.07421875" customWidth="true"/>
+    <col min="8" max="8" width="21.7578125" customWidth="true"/>
     <col min="9" max="9" width="29.296875" customWidth="true"/>
   </cols>
   <sheetData>
@@ -900,7 +913,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>ORDER  (BASELINE )</t>
+          <t>ORDER (BASELINE)</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
@@ -934,19 +947,19 @@
     <col min="6" max="6" width="23.765625" customWidth="true"/>
     <col min="7" max="7" width="11.46875" customWidth="true"/>
     <col min="8" max="8" width="8.90625" customWidth="true"/>
-    <col min="9" max="9" width="22.0078125" customWidth="true"/>
+    <col min="9" max="9" width="20.6875" customWidth="true"/>
     <col min="10" max="10" width="9.97265625" customWidth="true"/>
-    <col min="11" max="11" width="23.07421875" customWidth="true"/>
+    <col min="11" max="11" width="21.7578125" customWidth="true"/>
     <col min="12" max="12" width="29.01953125" customWidth="true"/>
-    <col min="13" max="13" width="42.12109375" customWidth="true"/>
+    <col min="13" max="13" width="40.8046875" customWidth="true"/>
     <col min="14" max="14" width="33.54296875" customWidth="true"/>
-    <col min="15" max="15" width="46.64453125" customWidth="true"/>
+    <col min="15" max="15" width="45.32421875" customWidth="true"/>
     <col min="16" max="16" width="25.21875" customWidth="true"/>
-    <col min="17" max="17" width="38.3203125" customWidth="true"/>
+    <col min="17" max="17" width="37.0" customWidth="true"/>
     <col min="18" max="18" width="14.734375" customWidth="true"/>
-    <col min="19" max="19" width="27.83203125" customWidth="true"/>
+    <col min="19" max="19" width="26.515625" customWidth="true"/>
     <col min="20" max="20" width="16.0703125" customWidth="true"/>
-    <col min="21" max="21" width="29.16796875" customWidth="true"/>
+    <col min="21" max="21" width="27.8515625" customWidth="true"/>
     <col min="22" max="22" width="29.296875" customWidth="true"/>
   </cols>
   <sheetData>
@@ -993,7 +1006,7 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>LEVEL  (BASELINE )</t>
+          <t>LEVEL (BASELINE)</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
@@ -1003,7 +1016,7 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ORDER  (BASELINE )</t>
+          <t>ORDER (BASELINE)</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
@@ -1013,7 +1026,7 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>PARENT ORDINATE CODE  (BASELINE )</t>
+          <t>PARENT ORDINATE CODE (BASELINE)</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
@@ -1023,7 +1036,7 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>IS DISPLAY BEFORE CHILDREN  (BASELINE )</t>
+          <t>IS DISPLAY BEFORE CHILDREN (BASELINE)</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
@@ -1033,7 +1046,7 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>IS ABSTRACT HEADER  (BASELINE )</t>
+          <t>IS ABSTRACT HEADER (BASELINE)</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
@@ -1043,7 +1056,7 @@
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>IS ROW KEY  (BASELINE )</t>
+          <t>IS ROW KEY (BASELINE)</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
@@ -1053,7 +1066,7 @@
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>TYPE OF KEY  (BASELINE )</t>
+          <t>TYPE OF KEY (BASELINE)</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
@@ -1146,7 +1159,7 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>TRANSLATION  (BASELINE )</t>
+          <t>TRANSLATION (BASELINE)</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
@@ -1179,13 +1192,11 @@
     <col min="5" max="5" width="21.08984375" customWidth="true"/>
     <col min="6" max="6" width="17.97265625" customWidth="true"/>
     <col min="7" max="7" width="11.46875" customWidth="true"/>
-    <col min="8" max="8" width="58.59375" customWidth="true"/>
-    <col min="9" max="9" width="58.59375" customWidth="true"/>
-    <col min="10" max="10" width="11.046875" customWidth="true"/>
-    <col min="11" max="11" width="24.1484375" customWidth="true"/>
-    <col min="12" max="12" width="58.59375" customWidth="true"/>
-    <col min="13" max="13" width="58.59375" customWidth="true"/>
-    <col min="14" max="14" width="29.296875" customWidth="true"/>
+    <col min="8" max="8" width="11.046875" customWidth="true"/>
+    <col min="9" max="9" width="22.83203125" customWidth="true"/>
+    <col min="10" max="10" width="58.59375" customWidth="true"/>
+    <col min="11" max="11" width="58.59375" customWidth="true"/>
+    <col min="12" max="12" width="29.296875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1226,42 +1237,32 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>DIMENSION MEMBER SIGNATURE</t>
+          <t>SOURCE</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>DIMENSION MEMBER SIGNATURE  (BASELINE )</t>
+          <t>SOURCE (BASELINE)</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>SOURCE</t>
+          <t>DPS</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>SOURCE  (BASELINE )</t>
+          <t>DPS (BASELINE)</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>DPS</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>DPS  (BASELINE )</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
           <t>NOTES</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N1"/>
+  <autoFilter ref="A1:L1"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
@@ -1413,7 +1414,7 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>TRANSLATION  (BASELINE )</t>
+          <t>TRANSLATION (BASELINE)</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
@@ -1444,9 +1445,9 @@
     <col min="3" max="3" width="21.62109375" customWidth="true"/>
     <col min="4" max="4" width="11.46875" customWidth="true"/>
     <col min="5" max="5" width="21.390625" customWidth="true"/>
-    <col min="6" max="6" width="34.4921875" customWidth="true"/>
+    <col min="6" max="6" width="33.17578125" customWidth="true"/>
     <col min="7" max="7" width="31.3359375" customWidth="true"/>
-    <col min="8" max="8" width="44.4375" customWidth="true"/>
+    <col min="8" max="8" width="43.12109375" customWidth="true"/>
     <col min="9" max="9" width="29.296875" customWidth="true"/>
   </cols>
   <sheetData>
@@ -1478,7 +1479,7 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>IS TYPED DOMAIN  (BASELINE )</t>
+          <t>IS TYPED DOMAIN (BASELINE)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -1488,7 +1489,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>TYPED DOMAIN DATA TYPE  (BASELINE )</t>
+          <t>TYPED DOMAIN DATA TYPE (BASELINE)</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
@@ -1520,7 +1521,7 @@
     <col min="4" max="4" width="21.5703125" customWidth="true"/>
     <col min="5" max="5" width="11.46875" customWidth="true"/>
     <col min="6" max="6" width="24.0" customWidth="true"/>
-    <col min="7" max="7" width="37.1015625" customWidth="true"/>
+    <col min="7" max="7" width="35.78515625" customWidth="true"/>
     <col min="8" max="8" width="29.296875" customWidth="true"/>
   </cols>
   <sheetData>
@@ -1557,7 +1558,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>IS DEFAULT MEMBER  (BASELINE )</t>
+          <t>IS DEFAULT MEMBER (BASELINE)</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1589,18 +1590,20 @@
     <col min="4" max="4" width="20.76171875" customWidth="true"/>
     <col min="5" max="5" width="11.46875" customWidth="true"/>
     <col min="6" max="6" width="14.53125" customWidth="true"/>
-    <col min="7" max="7" width="27.6328125" customWidth="true"/>
+    <col min="7" max="7" width="26.3125" customWidth="true"/>
     <col min="8" max="8" width="14.38671875" customWidth="true"/>
-    <col min="9" max="9" width="27.48828125" customWidth="true"/>
+    <col min="9" max="9" width="26.16796875" customWidth="true"/>
     <col min="10" max="10" width="18.15234375" customWidth="true"/>
-    <col min="11" max="11" width="31.25390625" customWidth="true"/>
+    <col min="11" max="11" width="29.93359375" customWidth="true"/>
     <col min="12" max="12" width="25.421875" customWidth="true"/>
-    <col min="13" max="13" width="38.5234375" customWidth="true"/>
+    <col min="13" max="13" width="37.203125" customWidth="true"/>
     <col min="14" max="14" width="28.71484375" customWidth="true"/>
-    <col min="15" max="15" width="41.81640625" customWidth="true"/>
+    <col min="15" max="15" width="40.5" customWidth="true"/>
     <col min="16" max="16" width="35.234375" customWidth="true"/>
-    <col min="17" max="17" width="48.3359375" customWidth="true"/>
-    <col min="18" max="18" width="29.296875" customWidth="true"/>
+    <col min="17" max="17" width="47.015625" customWidth="true"/>
+    <col min="18" max="18" width="36.31640625" customWidth="true"/>
+    <col min="19" max="19" width="48.09765625" customWidth="true"/>
+    <col min="20" max="20" width="29.296875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1636,7 +1639,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>DATA TYPE  (BASELINE )</t>
+          <t>DATA TYPE (BASELINE)</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1646,7 +1649,7 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>FLOW TYPE  (BASELINE )</t>
+          <t>FLOW TYPE (BASELINE)</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
@@ -1656,7 +1659,7 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>BALANCE TYPE  (BASELINE )</t>
+          <t>BALANCE TYPE (BASELINE)</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
@@ -1666,7 +1669,7 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>REFERENCED DOMAIN  (BASELINE )</t>
+          <t>REFERENCED DOMAIN (BASELINE)</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
@@ -1676,7 +1679,7 @@
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>REFERENCED HIERARCHY  (BASELINE )</t>
+          <t>REFERENCED HIERARCHY (BASELINE)</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
@@ -1686,17 +1689,27 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>HIERARCHY STARTING MEMBER  (BASELINE )</t>
+          <t>HIERARCHY STARTING MEMBER (BASELINE)</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
+          <t>IS STARTING MEMBER INCLUDED</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>IS STARTING MEMBER INCLUDED (BASELINE)</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
           <t>NOTES</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R1"/>
+  <autoFilter ref="A1:T1"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
@@ -1717,9 +1730,9 @@
     <col min="3" max="3" width="24.69140625" customWidth="true"/>
     <col min="4" max="4" width="11.46875" customWidth="true"/>
     <col min="5" max="5" width="31.9375" customWidth="true"/>
-    <col min="6" max="6" width="45.0390625" customWidth="true"/>
+    <col min="6" max="6" width="43.72265625" customWidth="true"/>
     <col min="7" max="7" width="24.46484375" customWidth="true"/>
-    <col min="8" max="8" width="37.5625" customWidth="true"/>
+    <col min="8" max="8" width="36.24609375" customWidth="true"/>
     <col min="9" max="9" width="29.296875" customWidth="true"/>
   </cols>
   <sheetData>
@@ -1751,7 +1764,7 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>REFERENCED DOMAIN CODE  (BASELINE )</t>
+          <t>REFERENCED DOMAIN CODE (BASELINE)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -1761,7 +1774,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>IS TYPED DIMENSION  (BASELINE )</t>
+          <t>IS TYPED DIMENSION (BASELINE)</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
@@ -1850,11 +1863,11 @@
     <col min="4" max="4" width="31.54296875" customWidth="true"/>
     <col min="5" max="5" width="11.46875" customWidth="true"/>
     <col min="6" max="6" width="16.15625" customWidth="true"/>
-    <col min="7" max="7" width="29.2578125" customWidth="true"/>
+    <col min="7" max="7" width="27.94140625" customWidth="true"/>
     <col min="8" max="8" width="28.7265625" customWidth="true"/>
-    <col min="9" max="9" width="41.828125" customWidth="true"/>
+    <col min="9" max="9" width="40.51171875" customWidth="true"/>
     <col min="10" max="10" width="22.0078125" customWidth="true"/>
-    <col min="11" max="11" width="35.109375" customWidth="true"/>
+    <col min="11" max="11" width="33.7890625" customWidth="true"/>
     <col min="12" max="12" width="29.296875" customWidth="true"/>
   </cols>
   <sheetData>
@@ -1891,7 +1904,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>IS ABSTRACT  (BASELINE )</t>
+          <t>IS ABSTRACT (BASELINE)</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1901,7 +1914,7 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>COMPARISON OPERATOR  (BASELINE )</t>
+          <t>COMPARISON OPERATOR (BASELINE)</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
@@ -1911,7 +1924,7 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>UNARY OPERATOR  (BASELINE )</t>
+          <t>UNARY OPERATOR (BASELINE)</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
